--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.013120.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Wolfram.Spring.013120.xlsx_with_dialog_acts.xlsx
@@ -513,12 +513,12 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1227,12 +1227,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1311,12 +1311,12 @@
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1353,12 +1353,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2703,12 +2703,12 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3975,12 +3975,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -4143,12 +4143,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4773,12 +4773,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5109,12 +5109,12 @@
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5323,12 +5323,12 @@
       <c r="H116" t="inlineStr"/>
       <c r="I116" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5365,12 +5365,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5449,12 +5449,12 @@
       <c r="H119" t="inlineStr"/>
       <c r="I119" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6037,12 +6037,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6297,12 +6297,12 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6339,12 +6339,12 @@
       <c r="H140" t="inlineStr"/>
       <c r="I140" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6465,12 +6465,12 @@
       <c r="H143" t="inlineStr"/>
       <c r="I143" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6507,12 +6507,12 @@
       <c r="H144" t="inlineStr"/>
       <c r="I144" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7011,12 +7011,12 @@
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7053,12 +7053,12 @@
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7179,12 +7179,12 @@
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7221,12 +7221,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7347,12 +7347,12 @@
       <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7431,12 +7431,12 @@
       <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7687,12 +7687,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8443,12 +8443,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8863,12 +8863,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8989,12 +8989,12 @@
       <c r="H203" t="inlineStr"/>
       <c r="I203" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J203" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9157,12 +9157,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9833,12 +9833,12 @@
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -10001,12 +10001,12 @@
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11257,12 +11257,12 @@
       </c>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -11845,12 +11845,12 @@
       <c r="H271" t="inlineStr"/>
       <c r="I271" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12349,12 +12349,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12391,12 +12391,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12559,12 +12559,12 @@
       <c r="H288" t="inlineStr"/>
       <c r="I288" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12601,12 +12601,12 @@
       </c>
       <c r="I289" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12857,12 +12857,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13823,12 +13823,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13995,12 +13995,12 @@
       </c>
       <c r="I322" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J322" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14163,12 +14163,12 @@
       </c>
       <c r="I326" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14331,12 +14331,12 @@
       </c>
       <c r="I330" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15045,12 +15045,12 @@
       <c r="H347" t="inlineStr"/>
       <c r="I347" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J347" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15423,12 +15423,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16305,12 +16305,12 @@
       <c r="H377" t="inlineStr"/>
       <c r="I377" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J377" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16389,12 +16389,12 @@
       <c r="H379" t="inlineStr"/>
       <c r="I379" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J379" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -16557,12 +16557,12 @@
       </c>
       <c r="I383" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J383" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17065,12 +17065,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17231,12 +17231,12 @@
       </c>
       <c r="I399" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J399" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17399,12 +17399,12 @@
       </c>
       <c r="I403" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J403" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17735,12 +17735,12 @@
       </c>
       <c r="I411" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18869,12 +18869,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19163,12 +19163,12 @@
       <c r="H445" t="inlineStr"/>
       <c r="I445" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J445" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19541,12 +19541,12 @@
       <c r="H454" t="inlineStr"/>
       <c r="I454" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J454" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19625,12 +19625,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
